--- a/advanced_selenium_a30/src/test/resources/ExcelFile.xlsx
+++ b/advanced_selenium_a30/src/test/resources/ExcelFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\eclipse-workspace\TestNG Workspace\advanced_selenium_a30\src\test\resources\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TC_ID</t>
   </si>
@@ -62,12 +62,19 @@
   </si>
   <si>
     <t>qsp_01</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,12 +429,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
@@ -446,33 +453,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="20.88671875"/>
+    <col min="3" max="3" customWidth="true" width="22.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/advanced_selenium_a30/src/test/resources/ExcelFile.xlsx
+++ b/advanced_selenium_a30/src/test/resources/ExcelFile.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\eclipse-workspace\TestNG Workspace\advanced_selenium_a30\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\git\Advance_selenium\advanced_selenium_a30\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0D321F-4AE3-431F-BEA1-5C6A0407495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD4358-914F-4DD0-847D-DAF36A641B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4A46D3E6-31B2-4A62-A0F5-2B1F46200562}"/>
+    <workbookView xWindow="4584" yWindow="1992" windowWidth="17280" windowHeight="8880" xr2:uid="{4A46D3E6-31B2-4A62-A0F5-2B1F46200562}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TC_ID</t>
   </si>
@@ -64,19 +64,32 @@
     <t>qsp_01</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,12 +113,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,22 +457,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FB6712-229C-4A78-B493-0529571AA8B5}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8777630237</v>
       </c>
     </row>
   </sheetData>
@@ -447,42 +502,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA4BA35-E3DA-46E0-BEB9-3A3ED7ABC71E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="20.88671875"/>
-    <col min="3" max="3" customWidth="true" width="22.109375"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
